--- a/results/AYTO VIP S2/results.xlsx
+++ b/results/AYTO VIP S2/results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Episode 00" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Episode 03" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Episode 04" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Episode 05" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Episode 06" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Episode 07" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Episode 08" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Episode 00" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Episode 03" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Episode 04" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Episode 05" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Episode 06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Episode 07" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Episode 08" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/AYTO VIP S2/results.xlsx
+++ b/results/AYTO VIP S2/results.xlsx
@@ -14,6 +14,8 @@
     <sheet name="Episode 06" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Episode 07" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Episode 08" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Episode 09" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Episode 10" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +43,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="71">
     <fill>
       <patternFill/>
     </fill>
@@ -55,31 +57,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="001CE3FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3D3D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0013ECFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="004BB4FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0015EAFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004BB4FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0012EDFF"/>
       </patternFill>
     </fill>
@@ -100,16 +102,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="001BE4FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="005BA4FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001BE4FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="001EE1FF"/>
       </patternFill>
     </fill>
@@ -120,11 +122,46 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0045BAFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0014EBFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047B8FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="000DF2FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="002CD3FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001AE5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004FB0FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001DE2FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="000FF0FF"/>
       </patternFill>
     </fill>
@@ -140,42 +177,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0014EBFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0045BAFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002CD3FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004FB0FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001AE5FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0048B7FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047B8FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001DE2FF"/>
+        <fgColor rgb="0043BCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0046B9FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004DB2FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020DFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0056A9FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -185,42 +212,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0043BCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0056A9FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0046B9FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004DB2FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0020DFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="000BF4FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="008976FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0001FEFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035CAFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0040BFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0018E7FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0004FBFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0031CEFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0023DCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0030CFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000CF3FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016E9FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0005FAFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039C6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0036C9FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0029D6FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0001FEFF"/>
+        <fgColor rgb="0017E8FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0006F9FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D629FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -230,92 +312,87 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0018E7FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008976FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000CF3FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0016E9FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0031CEFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0004FBFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0036C9FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035CAFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0017E8FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0006F9FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0025DAFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0030CFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0039C6FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0040BFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0023DCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0041BEFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0005FAFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D629FF"/>
+        <fgColor rgb="0008F7FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AF50FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0050AFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003CC3FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0032CDFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001FE0FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0002FDFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0022DDFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EE11FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FC0FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005DA2FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0026D9FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0027D8FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0028D7FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -337,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -352,50 +429,65 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -761,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,59 +864,64 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Amadu</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cecilia</t>
+          <t>Calvin</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Franziska</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gina</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Isabelle</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Karina</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Luisa</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ricarda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amadu</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -856,12 +953,15 @@
       </c>
       <c r="K2" s="2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Calvin</t>
+          <t>Cecilia</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -893,12 +993,15 @@
       </c>
       <c r="K3" s="2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fabio</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -930,12 +1033,15 @@
       </c>
       <c r="K4" s="2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Franziska</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -967,12 +1073,15 @@
       </c>
       <c r="K5" s="2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Gina</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1004,12 +1113,15 @@
       </c>
       <c r="K6" s="2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Isabelle</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1041,12 +1153,15 @@
       </c>
       <c r="K7" s="2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Maurice</t>
+          <t>Karina</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1078,12 +1193,15 @@
       </c>
       <c r="K8" s="2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Luisa</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1115,12 +1233,15 @@
       </c>
       <c r="K9" s="2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Ricarda</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1152,12 +1273,15 @@
       </c>
       <c r="K10" s="2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Pharrell</t>
+          <t>Zoe</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1189,6 +1313,9 @@
       </c>
       <c r="K11" s="2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,59 +1340,64 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Amadu</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cecilia</t>
+          <t>Calvin</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Franziska</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gina</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Isabelle</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Karina</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Luisa</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ricarda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amadu</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -1283,8 +1415,8 @@
       <c r="F2" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0.09876543209876543</v>
+      <c r="G2" s="4" t="n">
+        <v>0.1111111111111111</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>0.09876543209876543</v>
@@ -1295,14 +1427,17 @@
       <c r="J2" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>0.1111111111111111</v>
+      <c r="K2" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Calvin</t>
+          <t>Cecilia</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -1320,8 +1455,8 @@
       <c r="F3" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0.09876543209876543</v>
+      <c r="G3" s="4" t="n">
+        <v>0.1111111111111111</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0.09876543209876543</v>
@@ -1332,14 +1467,17 @@
       <c r="J3" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>0.1111111111111111</v>
+      <c r="K3" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fabio</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -1357,8 +1495,8 @@
       <c r="F4" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0.09876543209876543</v>
+      <c r="G4" s="4" t="n">
+        <v>0.1111111111111111</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0.09876543209876543</v>
@@ -1369,14 +1507,17 @@
       <c r="J4" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="K4" s="3" t="n">
-        <v>0.1111111111111111</v>
+      <c r="K4" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Franziska</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1394,8 +1535,8 @@
       <c r="F5" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0.09876543209876543</v>
+      <c r="G5" s="4" t="n">
+        <v>0.1111111111111111</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>0.09876543209876543</v>
@@ -1406,14 +1547,17 @@
       <c r="J5" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <v>0.1111111111111111</v>
+      <c r="K5" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Gina</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1431,8 +1575,8 @@
       <c r="F6" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0.09876543209876543</v>
+      <c r="G6" s="4" t="n">
+        <v>0.1111111111111111</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0.09876543209876543</v>
@@ -1443,51 +1587,57 @@
       <c r="J6" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <v>0.1111111111111111</v>
+      <c r="K6" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K7" s="4" t="n">
+      <c r="H7" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Maurice</t>
+          <t>Karina</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1505,8 +1655,8 @@
       <c r="F8" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>0.09876543209876543</v>
+      <c r="G8" s="4" t="n">
+        <v>0.1111111111111111</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0.09876543209876543</v>
@@ -1517,14 +1667,17 @@
       <c r="J8" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="K8" s="3" t="n">
-        <v>0.1111111111111111</v>
+      <c r="K8" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Luisa</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1542,8 +1695,8 @@
       <c r="F9" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0.09876543209876543</v>
+      <c r="G9" s="4" t="n">
+        <v>0.1111111111111111</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0.09876543209876543</v>
@@ -1554,14 +1707,17 @@
       <c r="J9" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="K9" s="3" t="n">
-        <v>0.1111111111111111</v>
+      <c r="K9" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Ricarda</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1579,8 +1735,8 @@
       <c r="F10" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>0.09876543209876543</v>
+      <c r="G10" s="4" t="n">
+        <v>0.1111111111111111</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0.09876543209876543</v>
@@ -1591,45 +1747,51 @@
       <c r="J10" s="2" t="n">
         <v>0.09876543209876543</v>
       </c>
-      <c r="K10" s="3" t="n">
-        <v>0.1111111111111111</v>
+      <c r="K10" s="2" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Pharrell</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.09876543209876543</v>
-      </c>
-      <c r="K11" s="3" t="n">
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
         <v>0.1111111111111111</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1654,115 +1816,123 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Amadu</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cecilia</t>
+          <t>Calvin</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Franziska</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gina</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Isabelle</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Karina</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Luisa</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ricarda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amadu</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B2" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.07529633095488751</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="J2" s="7" t="n">
         <v>0.2936746987951807</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>0.07529633095488751</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>0.08433734939759036</v>
+      <c r="K2" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Calvin</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>0.07809880297890591</v>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>0.2936746987951807</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
       <c r="D3" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>0.07529633095488751</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>0.2936746987951807</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0.07809880297890591</v>
+      <c r="F3" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0.08433734939759036</v>
       </c>
       <c r="H3" s="5" t="n">
         <v>0.07809880297890591</v>
@@ -1773,107 +1943,116 @@
       <c r="J3" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
-      <c r="K3" s="7" t="n">
-        <v>0.08433734939759036</v>
+      <c r="K3" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fabio</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.07809880297890591</v>
+        <v>0.07529633095488751</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.07809880297890591</v>
+        <v>0.07529633095488751</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.07529633095488751</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>0.07809880297890591</v>
+      <c r="E4" s="8" t="n">
+        <v>0.0723281475416228</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0.07809880297890591</v>
+        <v>0.07529633095488751</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0.3253012048192771</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0.2936746987951807</v>
+        <v>0.07529633095488751</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.07529633095488751</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>0.08433734939759036</v>
+        <v>0.07529633095488751</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.07529633095488751</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Franziska</t>
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0.07529633095488751</v>
+        <v>0.07809880297890591</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07529633095488751</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0.0723281475416228</v>
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.07809880297890591</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0.07529633095488751</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07529633095488751</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0.07529633095488751</v>
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.08433734939759036</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07529633095488751</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>0.07529633095488751</v>
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0.2936746987951807</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07529633095488751</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>0.3253012048192771</v>
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Gina</t>
         </is>
       </c>
       <c r="B6" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>0.07809880297890591</v>
+      <c r="C6" s="7" t="n">
+        <v>0.2936746987951807</v>
       </c>
       <c r="D6" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>0.07529633095488751</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
       <c r="F6" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2936746987951807</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>0.07809880297890591</v>
@@ -1884,51 +2063,57 @@
       <c r="J6" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
-      <c r="K6" s="7" t="n">
-        <v>0.08433734939759036</v>
+      <c r="K6" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n">
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.07529633095488751</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0.2936746987951807</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>0.08433734939759036</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>0.3253012048192771</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="K7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Maurice</t>
+          <t>Karina</t>
         </is>
       </c>
       <c r="B8" s="5" t="n">
@@ -1938,16 +2123,16 @@
         <v>0.07809880297890591</v>
       </c>
       <c r="D8" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>0.07529633095488751</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
       <c r="F8" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>0.07809880297890591</v>
+      <c r="G8" s="6" t="n">
+        <v>0.08433734939759036</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0.07809880297890591</v>
@@ -1955,17 +2140,20 @@
       <c r="I8" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="K8" s="7" t="n">
         <v>0.2936746987951807</v>
       </c>
-      <c r="K8" s="7" t="n">
-        <v>0.08433734939759036</v>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Luisa</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
@@ -1974,17 +2162,17 @@
       <c r="C9" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="7" t="n">
+        <v>0.2936746987951807</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>0.07529633095488751</v>
       </c>
-      <c r="E9" s="6" t="n">
-        <v>0.2936746987951807</v>
-      </c>
       <c r="F9" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0.07809880297890591</v>
+      <c r="G9" s="6" t="n">
+        <v>0.08433734939759036</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>0.07809880297890591</v>
@@ -1995,82 +2183,91 @@
       <c r="J9" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
-      <c r="K9" s="7" t="n">
-        <v>0.08433734939759036</v>
+      <c r="K9" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="n">
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.07529633095488751</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="H10" s="7" t="n">
         <v>0.2936746987951807</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>0.07529633095488751</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
       <c r="I10" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0.07809880297890591</v>
       </c>
-      <c r="K10" s="7" t="n">
-        <v>0.08433734939759036</v>
+      <c r="K10" s="5" t="n">
+        <v>0.07809880297890591</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Pharrell</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0.07529633095488751</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0.07809880297890591</v>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>0.3253012048192771</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2936746987951807</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>0.07809880297890591</v>
-      </c>
-      <c r="K11" s="7" t="n">
         <v>0.08433734939759036</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.08433734939759036</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +2281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,118 +2292,126 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Amadu</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cecilia</t>
+          <t>Calvin</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Franziska</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gina</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Isabelle</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Karina</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Luisa</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ricarda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amadu</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B2" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="C2" s="9" t="n">
-        <v>0.326226012793177</v>
+      <c r="C2" s="10" t="n">
+        <v>0.0702106665010592</v>
       </c>
       <c r="D2" s="10" t="n">
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="E2" s="10" t="n">
         <v>0.06731253579536436</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>0.0702106665010592</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="H2" s="10" t="n">
         <v>0.0702106665010592</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0.1105705867334617</v>
       </c>
       <c r="I2" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="J2" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>0.07462686567164178</v>
+      <c r="J2" s="9" t="n">
+        <v>0.326226012793177</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Calvin</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="n">
-        <v>0.0702106665010592</v>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0.326226012793177</v>
       </c>
       <c r="C3" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
       <c r="D3" s="10" t="n">
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="E3" s="10" t="n">
         <v>0.06731253579536436</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="F3" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="F3" s="9" t="n">
-        <v>0.326226012793177</v>
-      </c>
-      <c r="G3" s="10" t="n">
+      <c r="G3" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="H3" s="10" t="n">
         <v>0.0702106665010592</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0.1105705867334617</v>
       </c>
       <c r="I3" s="10" t="n">
         <v>0.0702106665010592</v>
@@ -2214,110 +2419,119 @@
       <c r="J3" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="K3" s="5" t="n">
-        <v>0.07462686567164178</v>
+      <c r="K3" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fabio</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="B4" s="10" t="n">
-        <v>0.0702106665010592</v>
+        <v>0.06731253579536436</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>0.0702106665010592</v>
+        <v>0.06731253579536436</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>0.06731253579536436</v>
       </c>
-      <c r="E4" s="10" t="n">
-        <v>0.0702106665010592</v>
+      <c r="E4" s="11" t="n">
+        <v>0.06400038641742743</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0.1105705867334617</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>0.326226012793177</v>
+        <v>0.06731253579536436</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>0.3582089552238806</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0.06731253579536436</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>0.06731253579536436</v>
       </c>
       <c r="J4" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0.07462686567164178</v>
+        <v>0.06731253579536436</v>
+      </c>
+      <c r="K4" s="13" t="n">
+        <v>0.1066029077911414</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Franziska</t>
         </is>
       </c>
       <c r="B5" s="10" t="n">
-        <v>0.06731253579536436</v>
+        <v>0.0702106665010592</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>0.06731253579536436</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>0.06400038641742743</v>
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.0702106665010592</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>0.06731253579536436</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>0.06731253579536436</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <v>0.06731253579536436</v>
-      </c>
-      <c r="H5" s="12" t="n">
-        <v>0.1066029077911414</v>
-      </c>
-      <c r="I5" s="10" t="n">
-        <v>0.06731253579536436</v>
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0.326226012793177</v>
       </c>
       <c r="J5" s="10" t="n">
-        <v>0.06731253579536436</v>
-      </c>
-      <c r="K5" s="13" t="n">
-        <v>0.3582089552238806</v>
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Gina</t>
         </is>
       </c>
       <c r="B6" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="9" t="n">
+        <v>0.326226012793177</v>
+      </c>
+      <c r="D6" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="E6" s="10" t="n">
         <v>0.06731253579536436</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>0.0702106665010592</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="G6" s="9" t="n">
-        <v>0.326226012793177</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>0.1105705867334617</v>
+      <c r="G6" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0.0702106665010592</v>
       </c>
       <c r="I6" s="10" t="n">
         <v>0.0702106665010592</v>
@@ -2325,88 +2539,97 @@
       <c r="J6" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="K6" s="5" t="n">
-        <v>0.07462686567164178</v>
+      <c r="K6" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>0.07462686567164178</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.07462686567164178</v>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>0.3582089552238806</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0.07462686567164178</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0.07462686567164178</v>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>0.06731253579536436</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.326226012793177</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07462686567164178</v>
       </c>
-      <c r="H7" s="14" t="n">
-        <v>0.1194029850746269</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0.07462686567164178</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0.07462686567164178</v>
+      <c r="H7" s="10" t="n">
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>0.0702106665010592</v>
       </c>
       <c r="K7" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Maurice</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="C8" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="D8" s="10" t="n">
-        <v>0.06731253579536436</v>
-      </c>
-      <c r="E8" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="G8" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="H8" s="3" t="n">
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>0.1105705867334617</v>
       </c>
-      <c r="I8" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <v>0.326226012793177</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>0.07462686567164178</v>
+      <c r="C8" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>0.1066029077911414</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>0.1194029850746269</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Luisa</t>
         </is>
       </c>
       <c r="B9" s="10" t="n">
@@ -2415,20 +2638,20 @@
       <c r="C9" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="9" t="n">
+        <v>0.326226012793177</v>
+      </c>
+      <c r="E9" s="10" t="n">
         <v>0.06731253579536436</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>0.326226012793177</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="H9" s="10" t="n">
         <v>0.0702106665010592</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>0.1105705867334617</v>
       </c>
       <c r="I9" s="10" t="n">
         <v>0.0702106665010592</v>
@@ -2436,36 +2659,39 @@
       <c r="J9" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="K9" s="5" t="n">
-        <v>0.07462686567164178</v>
+      <c r="K9" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n">
-        <v>0.326226012793177</v>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>0.0702106665010592</v>
       </c>
       <c r="C10" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
       <c r="D10" s="10" t="n">
+        <v>0.0702106665010592</v>
+      </c>
+      <c r="E10" s="10" t="n">
         <v>0.06731253579536436</v>
-      </c>
-      <c r="E10" s="10" t="n">
-        <v>0.0702106665010592</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="G10" s="10" t="n">
-        <v>0.0702106665010592</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>0.1105705867334617</v>
+      <c r="G10" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.326226012793177</v>
       </c>
       <c r="I10" s="10" t="n">
         <v>0.0702106665010592</v>
@@ -2473,45 +2699,51 @@
       <c r="J10" s="10" t="n">
         <v>0.0702106665010592</v>
       </c>
-      <c r="K10" s="5" t="n">
-        <v>0.07462686567164178</v>
+      <c r="K10" s="4" t="n">
+        <v>0.1105705867334617</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Pharrell</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>0.1105705867334617</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>0.1105705867334617</v>
-      </c>
-      <c r="D11" s="12" t="n">
-        <v>0.1066029077911414</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0.1105705867334617</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>0.1105705867334617</v>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <v>0.3582089552238806</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.07462686567164178</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0.1105705867334617</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.1105705867334617</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>0.1105705867334617</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.07462686567164178</v>
       </c>
       <c r="K11" s="14" t="n">
         <v>0.1194029850746269</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2536,423 +2768,458 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Amadu</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cecilia</t>
+          <t>Calvin</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Franziska</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gina</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Isabelle</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Karina</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Luisa</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ricarda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amadu</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B2" s="15" t="n">
         <v>0.05749385749385749</v>
       </c>
-      <c r="C2" s="16" t="n">
-        <v>0.2708194825841885</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>0.07532880474056945</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>0.07787252493134846</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0.109900274606157</v>
+      <c r="C2" s="15" t="n">
+        <v>0.05636652695476225</v>
+      </c>
+      <c r="D2" s="16" t="n">
+        <v>0.05370718311894782</v>
+      </c>
+      <c r="E2" s="16" t="n">
+        <v>0.0540251481427952</v>
+      </c>
+      <c r="F2" s="15" t="n">
+        <v>0.05596184419713832</v>
       </c>
       <c r="G2" s="17" t="n">
-        <v>0.07836392542274895</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0.1103338632750397</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.07804596039890158</v>
-      </c>
-      <c r="J2" s="15" t="n">
-        <v>0.05749385749385749</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>0.0843474490533314</v>
+        <v>0.06003757768463651</v>
+      </c>
+      <c r="H2" s="18" t="n">
+        <v>0.02855904032374621</v>
+      </c>
+      <c r="I2" s="15" t="n">
+        <v>0.05610637375343257</v>
+      </c>
+      <c r="J2" s="19" t="n">
+        <v>0.4967480849833791</v>
+      </c>
+      <c r="K2" s="20" t="n">
+        <v>0.08099436334730452</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Calvin</t>
-        </is>
-      </c>
-      <c r="B3" s="15" t="n">
-        <v>0.05636652695476225</v>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="n">
+        <v>0.2708194825841885</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0.07527099291805174</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>0.07454834513658043</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>0.07741003035120682</v>
-      </c>
-      <c r="F3" s="18" t="n">
-        <v>0.2800404682757624</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0.07723659488365371</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0.109495591848533</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.109900274606157</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <v>0.05636652695476225</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>0.08336464807053043</v>
+      <c r="D3" s="8" t="n">
+        <v>0.07313195548489666</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>0.07186009538950715</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0.07443272149154502</v>
+      </c>
+      <c r="G3" s="20" t="n">
+        <v>0.08018499783205665</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>0.05370718311894782</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0.0742014742014742</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <v>0.05370718311894782</v>
+      </c>
+      <c r="K3" s="22" t="n">
+        <v>0.1726839138603845</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fabio</t>
-        </is>
-      </c>
-      <c r="B4" s="19" t="n">
-        <v>0.05370718311894782</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>0.07313195548489666</v>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.07532880474056945</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.07454834513658043</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>0.07186009538950715</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0742014742014742</v>
+        <v>0.07206243676831912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07527099291805174</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0.07443272149154502</v>
-      </c>
-      <c r="H4" s="20" t="n">
-        <v>0.1726839138603845</v>
-      </c>
-      <c r="I4" s="16" t="n">
-        <v>0.2708194825841885</v>
-      </c>
-      <c r="J4" s="19" t="n">
-        <v>0.05370718311894782</v>
-      </c>
-      <c r="K4" s="17" t="n">
-        <v>0.08018499783205665</v>
+        <v>0.07558895794189911</v>
+      </c>
+      <c r="G4" s="23" t="n">
+        <v>0.3115479115479116</v>
+      </c>
+      <c r="H4" s="16" t="n">
+        <v>0.0540251481427952</v>
+      </c>
+      <c r="I4" s="24" t="n">
+        <v>0.1042347159994219</v>
+      </c>
+      <c r="J4" s="16" t="n">
+        <v>0.0540251481427952</v>
+      </c>
+      <c r="K4" s="13" t="n">
+        <v>0.1067784361902009</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Luca</t>
-        </is>
-      </c>
-      <c r="B5" s="19" t="n">
-        <v>0.0540251481427952</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>0.07186009538950715</v>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.07787252493134846</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.07741003035120682</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>0.07206243676831912</v>
-      </c>
-      <c r="E5" s="21" t="n">
+        <v>0.0742014742014742</v>
+      </c>
+      <c r="E5" s="24" t="n">
         <v>0.1042347159994219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07454834513658043</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0.07558895794189911</v>
-      </c>
-      <c r="H5" s="12" t="n">
-        <v>0.1067784361902009</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>0.07532880474056945</v>
-      </c>
-      <c r="J5" s="19" t="n">
-        <v>0.0540251481427952</v>
-      </c>
-      <c r="K5" s="22" t="n">
-        <v>0.3115479115479116</v>
+        <v>0.07758346581875994</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.08426073131955485</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <v>0.05610637375343257</v>
+      </c>
+      <c r="I5" s="25" t="n">
+        <v>0.2825263766440237</v>
+      </c>
+      <c r="J5" s="15" t="n">
+        <v>0.05610637375343257</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.109697933227345</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="B6" s="15" t="n">
-        <v>0.05596184419713832</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.07443272149154502</v>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.109900274606157</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>0.2800404682757624</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07558895794189911</v>
+        <v>0.07527099291805174</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07758346581875994</v>
+        <v>0.07454834513658043</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0.07723659488365371</v>
       </c>
-      <c r="G6" s="18" t="n">
-        <v>0.2792021968492557</v>
-      </c>
-      <c r="H6" s="12" t="n">
-        <v>0.1092354386472034</v>
-      </c>
-      <c r="I6" s="17" t="n">
-        <v>0.07836392542274895</v>
+      <c r="G6" s="6" t="n">
+        <v>0.08336464807053043</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <v>0.05636652695476225</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.07741003035120682</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.05596184419713832</v>
-      </c>
-      <c r="K6" s="23" t="n">
-        <v>0.1164330105506576</v>
+        <v>0.05636652695476225</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.109495591848533</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="B7" s="24" t="n">
-        <v>0.06003757768463651</v>
-      </c>
-      <c r="C7" s="17" t="n">
-        <v>0.08018499783205665</v>
-      </c>
-      <c r="D7" s="22" t="n">
-        <v>0.3115479115479116</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0.08426073131955485</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>0.08336464807053043</v>
-      </c>
-      <c r="G7" s="23" t="n">
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="n">
+        <v>0.07836392542274895</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.07723659488365371</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.07443272149154502</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.07558895794189911</v>
+      </c>
+      <c r="F7" s="26" t="n">
+        <v>0.2792021968492557</v>
+      </c>
+      <c r="G7" s="27" t="n">
         <v>0.1164330105506576</v>
       </c>
-      <c r="H7" s="14" t="n">
-        <v>0.1197860962566845</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0.0843474490533314</v>
-      </c>
-      <c r="J7" s="24" t="n">
-        <v>0.06003757768463651</v>
-      </c>
-      <c r="K7" s="4" t="n">
+      <c r="H7" s="15" t="n">
+        <v>0.05596184419713832</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.07758346581875994</v>
+      </c>
+      <c r="J7" s="15" t="n">
+        <v>0.05596184419713832</v>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>0.1092354386472034</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Maurice</t>
-        </is>
-      </c>
-      <c r="B8" s="25" t="n">
-        <v>0.02855904032374621</v>
-      </c>
-      <c r="C8" s="19" t="n">
-        <v>0.05370718311894782</v>
-      </c>
-      <c r="D8" s="19" t="n">
-        <v>0.0540251481427952</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>0.05610637375343257</v>
-      </c>
-      <c r="F8" s="15" t="n">
-        <v>0.05636652695476225</v>
-      </c>
-      <c r="G8" s="15" t="n">
-        <v>0.05596184419713832</v>
-      </c>
-      <c r="H8" s="17" t="n">
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>0.1103338632750397</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.109495591848533</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>0.1726839138603845</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>0.1067784361902009</v>
+      </c>
+      <c r="F8" s="13" t="n">
+        <v>0.1092354386472034</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>0.1197860962566845</v>
+      </c>
+      <c r="H8" s="20" t="n">
         <v>0.08099436334730452</v>
       </c>
-      <c r="I8" s="15" t="n">
-        <v>0.05749385749385749</v>
-      </c>
-      <c r="J8" s="26" t="n">
-        <v>0.4967480849833791</v>
-      </c>
-      <c r="K8" s="24" t="n">
-        <v>0.06003757768463651</v>
+      <c r="I8" s="4" t="n">
+        <v>0.109697933227345</v>
+      </c>
+      <c r="J8" s="20" t="n">
+        <v>0.08099436334730452</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
-        <v>0.05610637375343257</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>0.0742014742014742</v>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.07804596039890158</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.109900274606157</v>
       </c>
       <c r="D9" s="21" t="n">
-        <v>0.1042347159994219</v>
-      </c>
-      <c r="E9" s="27" t="n">
-        <v>0.2825263766440237</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>0.07741003035120682</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.07758346581875994</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>0.109697933227345</v>
+        <v>0.2708194825841885</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.07532880474056945</v>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>0.07836392542274895</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.0843474490533314</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>0.05749385749385749</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>0.07787252493134846</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>0.05610637375343257</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0.08426073131955485</v>
+        <v>0.05749385749385749</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.1103338632750397</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B10" s="26" t="n">
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>0.05749385749385749</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>0.05636652695476225</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0.05370718311894782</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>0.0540251481427952</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>0.05596184419713832</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>0.06003757768463651</v>
+      </c>
+      <c r="H10" s="19" t="n">
         <v>0.4967480849833791</v>
       </c>
-      <c r="C10" s="19" t="n">
-        <v>0.05370718311894782</v>
-      </c>
-      <c r="D10" s="19" t="n">
-        <v>0.0540251481427952</v>
-      </c>
-      <c r="E10" s="15" t="n">
+      <c r="I10" s="15" t="n">
         <v>0.05610637375343257</v>
       </c>
-      <c r="F10" s="15" t="n">
-        <v>0.05636652695476225</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.05596184419713832</v>
-      </c>
-      <c r="H10" s="17" t="n">
+      <c r="J10" s="18" t="n">
+        <v>0.02855904032374621</v>
+      </c>
+      <c r="K10" s="20" t="n">
         <v>0.08099436334730452</v>
       </c>
-      <c r="I10" s="15" t="n">
-        <v>0.05749385749385749</v>
-      </c>
-      <c r="J10" s="25" t="n">
-        <v>0.02855904032374621</v>
-      </c>
-      <c r="K10" s="24" t="n">
-        <v>0.06003757768463651</v>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Pharrell</t>
-        </is>
-      </c>
-      <c r="B11" s="17" t="n">
-        <v>0.08099436334730452</v>
-      </c>
-      <c r="C11" s="20" t="n">
-        <v>0.1726839138603845</v>
-      </c>
-      <c r="D11" s="12" t="n">
-        <v>0.1067784361902009</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0.109697933227345</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>0.109495591848533</v>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>0.1092354386472034</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.1103338632750397</v>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>0.0843474490533314</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.08336464807053043</v>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>0.08018499783205665</v>
+      </c>
+      <c r="E11" s="23" t="n">
+        <v>0.3115479115479116</v>
+      </c>
+      <c r="F11" s="27" t="n">
+        <v>0.1164330105506576</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="n">
+        <v>0.06003757768463651</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.08426073131955485</v>
       </c>
       <c r="J11" s="17" t="n">
-        <v>0.08099436334730452</v>
+        <v>0.06003757768463651</v>
       </c>
       <c r="K11" s="14" t="n">
         <v>0.1197860962566845</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +3233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2977,423 +3244,458 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Amadu</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cecilia</t>
+          <t>Calvin</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Franziska</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gina</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Isabelle</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Karina</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Luisa</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ricarda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amadu</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B2" s="15" t="n">
         <v>0.05794246404002502</v>
       </c>
-      <c r="C2" s="28" t="n">
-        <v>0.2649155722326454</v>
-      </c>
-      <c r="D2" s="17" t="n">
-        <v>0.08148843026891807</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>0.07798624140087555</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0.1121013133208255</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0.07651657285803627</v>
-      </c>
-      <c r="H2" s="12" t="n">
-        <v>0.1090056285178236</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.07764227642276422</v>
-      </c>
-      <c r="J2" s="15" t="n">
-        <v>0.05794246404002502</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>0.08445903689806129</v>
+      <c r="C2" s="15" t="n">
+        <v>0.05687929956222639</v>
+      </c>
+      <c r="D2" s="16" t="n">
+        <v>0.05440900562851782</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>0.05481550969355847</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>0.06053783614759225</v>
+      </c>
+      <c r="G2" s="17" t="n">
+        <v>0.05875547217010631</v>
+      </c>
+      <c r="H2" s="18" t="n">
+        <v>0.02951844903064415</v>
+      </c>
+      <c r="I2" s="15" t="n">
+        <v>0.05637898686679174</v>
+      </c>
+      <c r="J2" s="28" t="n">
+        <v>0.4898373983739837</v>
+      </c>
+      <c r="K2" s="20" t="n">
+        <v>0.0809255784865541</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Calvin</t>
-        </is>
-      </c>
-      <c r="B3" s="15" t="n">
-        <v>0.05687929956222639</v>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="29" t="n">
+        <v>0.2649155722326454</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0.07523452157598499</v>
       </c>
-      <c r="D3" s="17" t="n">
-        <v>0.08064415259537211</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>0.07773608505315822</v>
-      </c>
-      <c r="F3" s="29" t="n">
-        <v>0.2734521575984991</v>
+      <c r="D3" s="8" t="n">
+        <v>0.07348342714196372</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>0.07229518449030645</v>
+      </c>
+      <c r="F3" s="20" t="n">
+        <v>0.08051907442151345</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.07514071294559099</v>
-      </c>
-      <c r="H3" s="12" t="n">
-        <v>0.108317698561601</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.1121013133208255</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <v>0.05687929956222639</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>0.08361475922451532</v>
+        <v>0.07801751094434022</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>0.05440900562851782</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0.07442151344590368</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <v>0.05440900562851782</v>
+      </c>
+      <c r="K3" s="22" t="n">
+        <v>0.1722951844903065</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fabio</t>
-        </is>
-      </c>
-      <c r="B4" s="19" t="n">
-        <v>0.05440900562851782</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>0.07348342714196372</v>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="20" t="n">
+        <v>0.08148843026891807</v>
+      </c>
+      <c r="C4" s="20" t="n">
+        <v>0.08064415259537211</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.07773608505315822</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.07435897435897436</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.07523452157598499</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>0.07292057535959975</v>
-      </c>
-      <c r="H4" s="20" t="n">
-        <v>0.1722951844903065</v>
-      </c>
-      <c r="I4" s="28" t="n">
-        <v>0.2649155722326454</v>
-      </c>
-      <c r="J4" s="19" t="n">
-        <v>0.05440900562851782</v>
-      </c>
-      <c r="K4" s="17" t="n">
-        <v>0.08023764853033145</v>
+        <v>0.07795497185741088</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>0.3370231394621638</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>0.05844277673545966</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.1127579737335835</v>
+      </c>
+      <c r="J4" s="15" t="n">
+        <v>0.05844277673545966</v>
+      </c>
+      <c r="K4" s="27" t="n">
+        <v>0.115509693558474</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Luca</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
-        <v>0.05481550969355847</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>0.07229518449030645</v>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.07798624140087555</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.07773608505315822</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07795497185741088</v>
-      </c>
-      <c r="E5" s="12" t="n">
+        <v>0.07435897435897436</v>
+      </c>
+      <c r="E5" s="13" t="n">
         <v>0.1057848655409631</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0.07526579111944966</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0.07454659161976235</v>
-      </c>
-      <c r="H5" s="12" t="n">
-        <v>0.1062851782363977</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>0.07570356472795498</v>
+      <c r="F5" s="6" t="n">
+        <v>0.08392745465916197</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.0823639774859287</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <v>0.05681676047529706</v>
+      </c>
+      <c r="I5" s="31" t="n">
+        <v>0.2754534083802376</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.05481550969355847</v>
-      </c>
-      <c r="K5" s="30" t="n">
-        <v>0.3025328330206379</v>
+        <v>0.05681676047529706</v>
+      </c>
+      <c r="K5" s="13" t="n">
+        <v>0.1087554721701063</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="B6" s="24" t="n">
-        <v>0.06053783614759225</v>
-      </c>
-      <c r="C6" s="17" t="n">
-        <v>0.08051907442151345</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>0.08392745465916197</v>
-      </c>
-      <c r="F6" s="7" t="n">
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.1121013133208255</v>
+      </c>
+      <c r="C6" s="31" t="n">
+        <v>0.2734521575984991</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.07523452157598499</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.07526579111944966</v>
+      </c>
+      <c r="F6" s="6" t="n">
         <v>0.08355222013758599</v>
       </c>
-      <c r="G6" s="30" t="n">
-        <v>0.3020325203252033</v>
-      </c>
-      <c r="H6" s="14" t="n">
-        <v>0.1181676047529706</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>0.08477173233270795</v>
-      </c>
-      <c r="J6" s="24" t="n">
-        <v>0.06053783614759225</v>
-      </c>
-      <c r="K6" s="31" t="n">
-        <v>0.1259537210756723</v>
+      <c r="G6" s="20" t="n">
+        <v>0.08058161350844277</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <v>0.05687929956222639</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.07773608505315822</v>
+      </c>
+      <c r="J6" s="15" t="n">
+        <v>0.05687929956222639</v>
+      </c>
+      <c r="K6" s="13" t="n">
+        <v>0.108317698561601</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="B7" s="24" t="n">
-        <v>0.05875547217010631</v>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.07651657285803627</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07801751094434022</v>
-      </c>
-      <c r="D7" s="32" t="n">
-        <v>0.3370231394621638</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0.0823639774859287</v>
-      </c>
-      <c r="F7" s="17" t="n">
-        <v>0.08058161350844277</v>
-      </c>
-      <c r="G7" s="12" t="n">
+        <v>0.07514071294559099</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>0.07292057535959975</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.07454659161976235</v>
+      </c>
+      <c r="F7" s="32" t="n">
+        <v>0.3020325203252033</v>
+      </c>
+      <c r="G7" s="13" t="n">
         <v>0.1070356472795497</v>
       </c>
-      <c r="H7" s="23" t="n">
-        <v>0.1156660412757974</v>
-      </c>
-      <c r="I7" s="17" t="n">
-        <v>0.08180112570356472</v>
-      </c>
-      <c r="J7" s="24" t="n">
-        <v>0.05875547217010631</v>
-      </c>
-      <c r="K7" s="4" t="n">
+      <c r="H7" s="15" t="n">
+        <v>0.05500312695434647</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.07554721701063165</v>
+      </c>
+      <c r="J7" s="15" t="n">
+        <v>0.05500312695434647</v>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>0.1062539086929331</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Maurice</t>
-        </is>
-      </c>
-      <c r="B8" s="25" t="n">
-        <v>0.02951844903064415</v>
-      </c>
-      <c r="C8" s="19" t="n">
-        <v>0.05440900562851782</v>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>0.05844277673545966</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>0.05681676047529706</v>
-      </c>
-      <c r="F8" s="15" t="n">
-        <v>0.05687929956222639</v>
-      </c>
-      <c r="G8" s="15" t="n">
-        <v>0.05500312695434647</v>
-      </c>
-      <c r="H8" s="17" t="n">
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>0.1090056285178236</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>0.108317698561601</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>0.1722951844903065</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>0.1062851782363977</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>0.1181676047529706</v>
+      </c>
+      <c r="G8" s="27" t="n">
+        <v>0.1156660412757974</v>
+      </c>
+      <c r="H8" s="20" t="n">
         <v>0.0809255784865541</v>
       </c>
-      <c r="I8" s="15" t="n">
-        <v>0.05794246404002502</v>
-      </c>
-      <c r="J8" s="33" t="n">
-        <v>0.4898373983739837</v>
-      </c>
-      <c r="K8" s="24" t="n">
-        <v>0.06022514071294559</v>
+      <c r="I8" s="13" t="n">
+        <v>0.108411507191995</v>
+      </c>
+      <c r="J8" s="20" t="n">
+        <v>0.0809255784865541</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
-        <v>0.05637898686679174</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>0.07442151344590368</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0.1127579737335835</v>
-      </c>
-      <c r="E9" s="29" t="n">
-        <v>0.2754534083802376</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>0.07773608505315822</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.07554721701063165</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <v>0.108411507191995</v>
-      </c>
-      <c r="I9" s="17" t="n">
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.07764227642276422</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.1121013133208255</v>
+      </c>
+      <c r="D9" s="29" t="n">
+        <v>0.2649155722326454</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.07570356472795498</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.08477173233270795</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>0.08180112570356472</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>0.05794246404002502</v>
+      </c>
+      <c r="I9" s="20" t="n">
         <v>0.07817385866166354</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>0.05637898686679174</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0.08474046278924327</v>
+        <v>0.05794246404002502</v>
+      </c>
+      <c r="K9" s="13" t="n">
+        <v>0.1090056285178236</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B10" s="33" t="n">
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>0.05794246404002502</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>0.05687929956222639</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0.05440900562851782</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>0.05481550969355847</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>0.06053783614759225</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>0.05875547217010631</v>
+      </c>
+      <c r="H10" s="28" t="n">
         <v>0.4898373983739837</v>
       </c>
-      <c r="C10" s="19" t="n">
-        <v>0.05440900562851782</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.05844277673545966</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.05681676047529706</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0.05687929956222639</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.05500312695434647</v>
-      </c>
-      <c r="H10" s="17" t="n">
+      <c r="I10" s="15" t="n">
+        <v>0.05637898686679174</v>
+      </c>
+      <c r="J10" s="18" t="n">
+        <v>0.02951844903064415</v>
+      </c>
+      <c r="K10" s="20" t="n">
         <v>0.0809255784865541</v>
       </c>
-      <c r="I10" s="15" t="n">
-        <v>0.05794246404002502</v>
-      </c>
-      <c r="J10" s="25" t="n">
-        <v>0.02951844903064415</v>
-      </c>
-      <c r="K10" s="24" t="n">
-        <v>0.06022514071294559</v>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Pharrell</t>
-        </is>
-      </c>
-      <c r="B11" s="17" t="n">
-        <v>0.0809255784865541</v>
-      </c>
-      <c r="C11" s="20" t="n">
-        <v>0.1722951844903065</v>
-      </c>
-      <c r="D11" s="23" t="n">
-        <v>0.115509693558474</v>
-      </c>
-      <c r="E11" s="12" t="n">
-        <v>0.1087554721701063</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <v>0.108317698561601</v>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>0.1062539086929331</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12" t="n">
-        <v>0.1090056285178236</v>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>0.08445903689806129</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.08361475922451532</v>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>0.08023764853033145</v>
+      </c>
+      <c r="E11" s="32" t="n">
+        <v>0.3025328330206379</v>
+      </c>
+      <c r="F11" s="33" t="n">
+        <v>0.1259537210756723</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="n">
+        <v>0.06022514071294559</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.08474046278924327</v>
       </c>
       <c r="J11" s="17" t="n">
-        <v>0.0809255784865541</v>
+        <v>0.06022514071294559</v>
       </c>
       <c r="K11" s="14" t="n">
         <v>0.1180112570356473</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3407,7 +3709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3418,423 +3720,1410 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Amadu</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cecilia</t>
+          <t>Calvin</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Franziska</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gina</t>
+          <t>Lukas</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Isabelle</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Karina</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Luisa</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ricarda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amadu</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B2" s="34" t="n">
         <v>0.0448968209704406</v>
       </c>
-      <c r="C2" s="35" t="n">
-        <v>0.5365309537088678</v>
-      </c>
-      <c r="D2" s="19" t="n">
-        <v>0.05242610150585611</v>
-      </c>
-      <c r="E2" s="15" t="n">
-        <v>0.05577244841048522</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <v>0.06358059118795314</v>
-      </c>
-      <c r="G2" s="15" t="n">
-        <v>0.05577244841048522</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>0.07417735638594534</v>
-      </c>
-      <c r="I2" s="19" t="n">
-        <v>0.05158951477969883</v>
-      </c>
-      <c r="J2" s="36" t="n">
-        <v>0.006413831567205801</v>
-      </c>
-      <c r="K2" s="24" t="n">
-        <v>0.05883993307306191</v>
+      <c r="C2" s="8" t="n">
+        <v>0.07194645844952594</v>
+      </c>
+      <c r="D2" s="20" t="n">
+        <v>0.07975460122699386</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>0.0694366982710541</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.07501394311210262</v>
+      </c>
+      <c r="G2" s="35" t="n">
+        <v>0.1639709983268265</v>
+      </c>
+      <c r="H2" s="36" t="n">
+        <v>0.007808142777467931</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>0.06915783602900168</v>
+      </c>
+      <c r="J2" s="37" t="n">
+        <v>0.32069157836029</v>
+      </c>
+      <c r="K2" s="38" t="n">
+        <v>0.0973229224762967</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Calvin</t>
-        </is>
-      </c>
-      <c r="B3" s="8" t="n">
-        <v>0.07194645844952594</v>
-      </c>
-      <c r="C3" s="19" t="n">
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="39" t="n">
+        <v>0.5365309537088678</v>
+      </c>
+      <c r="C3" s="16" t="n">
         <v>0.05382041271611824</v>
       </c>
-      <c r="D3" s="7" t="n">
-        <v>0.0822643614054657</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>0.07138873396542109</v>
-      </c>
-      <c r="F3" s="37" t="n">
-        <v>0.2085889570552147</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>0.06999442275515895</v>
-      </c>
-      <c r="H3" s="38" t="n">
-        <v>0.2520914668153932</v>
-      </c>
-      <c r="I3" s="39" t="n">
-        <v>0.09537088678192973</v>
+      <c r="D3" s="15" t="n">
+        <v>0.05549358616843279</v>
+      </c>
+      <c r="E3" s="40" t="n">
+        <v>0.04880089235917457</v>
+      </c>
+      <c r="F3" s="15" t="n">
+        <v>0.05493586168432794</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>0.05800334634690463</v>
+      </c>
+      <c r="H3" s="36" t="n">
+        <v>0.005856107083100948</v>
+      </c>
+      <c r="I3" s="40" t="n">
+        <v>0.0501952035694367</v>
       </c>
       <c r="J3" s="40" t="n">
-        <v>0.01617401003904071</v>
-      </c>
-      <c r="K3" s="17" t="n">
-        <v>0.07836029001673174</v>
+        <v>0.04991634132738428</v>
+      </c>
+      <c r="K3" s="41" t="n">
+        <v>0.08644729503625209</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fabio</t>
-        </is>
-      </c>
-      <c r="B4" s="17" t="n">
-        <v>0.07975460122699386</v>
-      </c>
-      <c r="C4" s="15" t="n">
-        <v>0.05549358616843279</v>
-      </c>
-      <c r="D4" s="41" t="n">
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="n">
+        <v>0.05242610150585611</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.0822643614054657</v>
+      </c>
+      <c r="D4" s="42" t="n">
         <v>0.1940881204684886</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>0.0769659788064696</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>0.08533184606804238</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0.07724484104852203</v>
-      </c>
-      <c r="H4" s="42" t="n">
-        <v>0.1383156720580034</v>
-      </c>
-      <c r="I4" s="43" t="n">
-        <v>0.1912994980479643</v>
-      </c>
-      <c r="J4" s="40" t="n">
-        <v>0.0181260457334077</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>0.08337981037367541</v>
+      <c r="E4" s="6" t="n">
+        <v>0.0822643614054657</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <v>0.2621305075292805</v>
+      </c>
+      <c r="H4" s="43" t="n">
+        <v>0.01840490797546012</v>
+      </c>
+      <c r="I4" s="27" t="n">
+        <v>0.1146123814835471</v>
+      </c>
+      <c r="J4" s="20" t="n">
+        <v>0.08003346346904629</v>
+      </c>
+      <c r="K4" s="27" t="n">
+        <v>0.1137757947573898</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Luca</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
-        <v>0.0694366982710541</v>
-      </c>
-      <c r="C5" s="44" t="n">
-        <v>0.04880089235917457</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>0.0822643614054657</v>
-      </c>
-      <c r="E5" s="21" t="n">
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>0.05577244841048522</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>0.07138873396542109</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.0769659788064696</v>
+      </c>
+      <c r="E5" s="24" t="n">
         <v>0.1045733407696598</v>
       </c>
-      <c r="F5" s="45" t="n">
-        <v>0.08895705521472393</v>
-      </c>
-      <c r="G5" s="43" t="n">
-        <v>0.1882320133853876</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.09871723368655884</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>0.07445621862799777</v>
-      </c>
-      <c r="J5" s="46" t="n">
-        <v>0.02063580591187953</v>
-      </c>
-      <c r="K5" s="47" t="n">
-        <v>0.2239263803680982</v>
+      <c r="F5" s="44" t="n">
+        <v>0.2110987172336866</v>
+      </c>
+      <c r="G5" s="41" t="n">
+        <v>0.0897936419408812</v>
+      </c>
+      <c r="H5" s="43" t="n">
+        <v>0.01896263245956498</v>
+      </c>
+      <c r="I5" s="42" t="n">
+        <v>0.1946458449525934</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.07780256553262688</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0.09899609592861126</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lukas</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0.07501394311210262</v>
-      </c>
-      <c r="C6" s="15" t="n">
-        <v>0.05493586168432794</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="48" t="n">
-        <v>0.2110987172336866</v>
-      </c>
-      <c r="F6" s="39" t="n">
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>0.06358059118795314</v>
+      </c>
+      <c r="C6" s="45" t="n">
+        <v>0.2085889570552147</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.08533184606804238</v>
+      </c>
+      <c r="E6" s="41" t="n">
+        <v>0.08895705521472393</v>
+      </c>
+      <c r="F6" s="38" t="n">
         <v>0.09760178471834914</v>
       </c>
-      <c r="G6" s="47" t="n">
-        <v>0.2233686558839933</v>
-      </c>
-      <c r="H6" s="21" t="n">
-        <v>0.1045733407696598</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>0.08365867261572783</v>
-      </c>
-      <c r="J6" s="46" t="n">
-        <v>0.02230897936419409</v>
-      </c>
-      <c r="K6" s="31" t="n">
-        <v>0.1274400446179587</v>
+      <c r="G6" s="46" t="n">
+        <v>0.09174567763524819</v>
+      </c>
+      <c r="H6" s="47" t="n">
+        <v>0.02426101505856107</v>
+      </c>
+      <c r="I6" s="41" t="n">
+        <v>0.08728388176240937</v>
+      </c>
+      <c r="J6" s="48" t="n">
+        <v>0.1477969882877858</v>
+      </c>
+      <c r="K6" s="24" t="n">
+        <v>0.1048522030117122</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="B7" s="49" t="n">
-        <v>0.1639709983268265</v>
-      </c>
-      <c r="C7" s="15" t="n">
-        <v>0.05800334634690463</v>
-      </c>
-      <c r="D7" s="28" t="n">
-        <v>0.2621305075292805</v>
-      </c>
-      <c r="E7" s="45" t="n">
-        <v>0.0897936419408812</v>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>0.05577244841048522</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>0.06999442275515895</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.07724484104852203</v>
+      </c>
+      <c r="E7" s="49" t="n">
+        <v>0.1882320133853876</v>
       </c>
       <c r="F7" s="50" t="n">
-        <v>0.09174567763524819</v>
-      </c>
-      <c r="G7" s="3" t="n">
+        <v>0.2233686558839933</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>0.1101505856107083</v>
       </c>
-      <c r="H7" s="23" t="n">
-        <v>0.115170105967652</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0.08505298382598996</v>
-      </c>
-      <c r="J7" s="51" t="n">
-        <v>0.02398215281650865</v>
-      </c>
-      <c r="K7" s="4" t="n">
+      <c r="H7" s="43" t="n">
+        <v>0.01896263245956498</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.07780256553262688</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.07529280535415504</v>
+      </c>
+      <c r="K7" s="24" t="n">
+        <v>0.1031790295593977</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Maurice</t>
-        </is>
-      </c>
-      <c r="B8" s="36" t="n">
-        <v>0.007808142777467931</v>
-      </c>
-      <c r="C8" s="36" t="n">
-        <v>0.005856107083100948</v>
-      </c>
-      <c r="D8" s="40" t="n">
-        <v>0.01840490797546012</v>
-      </c>
-      <c r="E8" s="40" t="n">
-        <v>0.01896263245956498</v>
-      </c>
-      <c r="F8" s="51" t="n">
-        <v>0.02426101505856107</v>
-      </c>
-      <c r="G8" s="40" t="n">
-        <v>0.01896263245956498</v>
-      </c>
-      <c r="H8" s="51" t="n">
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>0.07417735638594534</v>
+      </c>
+      <c r="C8" s="51" t="n">
+        <v>0.2520914668153932</v>
+      </c>
+      <c r="D8" s="52" t="n">
+        <v>0.1383156720580034</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.09871723368655884</v>
+      </c>
+      <c r="F8" s="24" t="n">
+        <v>0.1045733407696598</v>
+      </c>
+      <c r="G8" s="27" t="n">
+        <v>0.115170105967652</v>
+      </c>
+      <c r="H8" s="47" t="n">
         <v>0.02677077523703291</v>
       </c>
-      <c r="I8" s="40" t="n">
-        <v>0.01840490797546012</v>
-      </c>
-      <c r="J8" s="52" t="n">
-        <v>0.8388176240936978</v>
-      </c>
-      <c r="K8" s="46" t="n">
-        <v>0.02175125488008924</v>
+      <c r="I8" s="38" t="n">
+        <v>0.0973229224762967</v>
+      </c>
+      <c r="J8" s="46" t="n">
+        <v>0.0928611266034579</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
-        <v>0.06915783602900168</v>
-      </c>
-      <c r="C9" s="44" t="n">
-        <v>0.0501952035694367</v>
-      </c>
-      <c r="D9" s="23" t="n">
-        <v>0.1146123814835471</v>
-      </c>
-      <c r="E9" s="41" t="n">
-        <v>0.1946458449525934</v>
-      </c>
-      <c r="F9" s="45" t="n">
-        <v>0.08728388176240937</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.07780256553262688</v>
-      </c>
-      <c r="H9" s="39" t="n">
-        <v>0.0973229224762967</v>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="16" t="n">
+        <v>0.05158951477969883</v>
+      </c>
+      <c r="C9" s="38" t="n">
+        <v>0.09537088678192973</v>
+      </c>
+      <c r="D9" s="49" t="n">
+        <v>0.1912994980479643</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.07445621862799777</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.08365867261572783</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.08505298382598996</v>
+      </c>
+      <c r="H9" s="43" t="n">
+        <v>0.01840490797546012</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>0.07640825432236475</v>
       </c>
-      <c r="J9" s="46" t="n">
-        <v>0.01979921918572225</v>
-      </c>
-      <c r="K9" s="48" t="n">
-        <v>0.2127718906860011</v>
+      <c r="J9" s="10" t="n">
+        <v>0.06915783602900168</v>
+      </c>
+      <c r="K9" s="53" t="n">
+        <v>0.254601226993865</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="B10" s="53" t="n">
-        <v>0.32069157836029</v>
-      </c>
-      <c r="C10" s="44" t="n">
-        <v>0.04991634132738428</v>
-      </c>
-      <c r="D10" s="17" t="n">
-        <v>0.08003346346904629</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0.07780256553262688</v>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="36" t="n">
+        <v>0.006413831567205801</v>
+      </c>
+      <c r="C10" s="43" t="n">
+        <v>0.01617401003904071</v>
+      </c>
+      <c r="D10" s="43" t="n">
+        <v>0.0181260457334077</v>
+      </c>
+      <c r="E10" s="54" t="n">
+        <v>0.02063580591187953</v>
       </c>
       <c r="F10" s="54" t="n">
-        <v>0.1477969882877858</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0.07529280535415504</v>
-      </c>
-      <c r="H10" s="50" t="n">
-        <v>0.0928611266034579</v>
-      </c>
-      <c r="I10" s="10" t="n">
-        <v>0.06915783602900168</v>
+        <v>0.02230897936419409</v>
+      </c>
+      <c r="G10" s="47" t="n">
+        <v>0.02398215281650865</v>
+      </c>
+      <c r="H10" s="55" t="n">
+        <v>0.8388176240936978</v>
+      </c>
+      <c r="I10" s="54" t="n">
+        <v>0.01979921918572225</v>
       </c>
       <c r="J10" s="36" t="n">
         <v>0.005577244841048522</v>
       </c>
-      <c r="K10" s="17" t="n">
-        <v>0.08087005019520357</v>
+      <c r="K10" s="18" t="n">
+        <v>0.02816508644729504</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="17" t="n">
+        <v>0.05883993307306191</v>
+      </c>
+      <c r="C11" s="20" t="n">
+        <v>0.07836029001673174</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.08337981037367541</v>
+      </c>
+      <c r="E11" s="50" t="n">
+        <v>0.2239263803680982</v>
+      </c>
+      <c r="F11" s="33" t="n">
+        <v>0.1274400446179587</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="54" t="n">
+        <v>0.02175125488008924</v>
+      </c>
+      <c r="I11" s="44" t="n">
+        <v>0.2127718906860011</v>
+      </c>
+      <c r="J11" s="20" t="n">
+        <v>0.08087005019520357</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>0.1126603457891801</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amadu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fabio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Pharrell</t>
         </is>
       </c>
-      <c r="B11" s="39" t="n">
-        <v>0.0973229224762967</v>
-      </c>
-      <c r="C11" s="45" t="n">
-        <v>0.08644729503625209</v>
-      </c>
-      <c r="D11" s="23" t="n">
-        <v>0.1137757947573898</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0.09899609592861126</v>
-      </c>
-      <c r="F11" s="21" t="n">
-        <v>0.1048522030117122</v>
-      </c>
-      <c r="G11" s="21" t="n">
-        <v>0.1031790295593977</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="55" t="n">
-        <v>0.254601226993865</v>
-      </c>
-      <c r="J11" s="25" t="n">
-        <v>0.02816508644729504</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>0.1126603457891801</v>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" s="56" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E2" s="40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22" t="n">
+        <v>0.1733333333333333</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="J2" s="57" t="n">
+        <v>0.3633333333333333</v>
+      </c>
+      <c r="K2" s="58" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="59" t="n">
+        <v>0.6866666666666666</v>
+      </c>
+      <c r="C3" s="56" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="D3" s="40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="56" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="J3" s="47" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K3" s="46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D4" s="60" t="n">
+        <v>0.2366666666666667</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I4" s="46" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="J4" s="41" t="n">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="K4" s="61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="E5" s="62" t="n">
+        <v>0.1233333333333333</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>0.1133333333333333</v>
+      </c>
+      <c r="H5" s="43" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="I5" s="53" t="n">
+        <v>0.2566666666666667</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K5" s="63" t="n">
+        <v>0.1533333333333333</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="47" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="C6" s="53" t="n">
+        <v>0.2566666666666667</v>
+      </c>
+      <c r="D6" s="24" t="n">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="E6" s="38" t="n">
+        <v>0.09666666666666666</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="H6" s="54" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="13" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="J6" s="48" t="n">
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="K6" s="61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="C7" s="20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D7" s="46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="29" t="n">
+        <v>0.2633333333333333</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>0.1733333333333333</v>
+      </c>
+      <c r="H7" s="64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J7" s="38" t="n">
+        <v>0.09666666666666666</v>
+      </c>
+      <c r="K7" s="52" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>0.05333333333333334</v>
+      </c>
+      <c r="C8" s="65" t="n">
+        <v>0.3133333333333334</v>
+      </c>
+      <c r="D8" s="66" t="n">
+        <v>0.1966666666666667</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="58" t="n">
+        <v>0.1366666666666667</v>
+      </c>
+      <c r="H8" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="D10" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="E10" s="64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="68" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="I10" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="47" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="34" t="n">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0.07333333333333333</v>
+      </c>
+      <c r="D11" s="24" t="n">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="E11" s="51" t="n">
+        <v>0.2533333333333334</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I11" s="69" t="n">
+        <v>0.2466666666666667</v>
+      </c>
+      <c r="J11" s="27" t="n">
+        <v>0.1133333333333333</v>
+      </c>
+      <c r="K11" s="70" t="n">
+        <v>0.1566666666666667</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amadu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fabio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" s="56" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E2" s="40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22" t="n">
+        <v>0.1733333333333333</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="J2" s="57" t="n">
+        <v>0.3633333333333333</v>
+      </c>
+      <c r="K2" s="58" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="59" t="n">
+        <v>0.6866666666666666</v>
+      </c>
+      <c r="C3" s="56" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="D3" s="40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="56" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="J3" s="47" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K3" s="46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D4" s="60" t="n">
+        <v>0.2366666666666667</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I4" s="46" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="J4" s="41" t="n">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="K4" s="61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="E5" s="62" t="n">
+        <v>0.1233333333333333</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>0.1133333333333333</v>
+      </c>
+      <c r="H5" s="43" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="I5" s="53" t="n">
+        <v>0.2566666666666667</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K5" s="63" t="n">
+        <v>0.1533333333333333</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="47" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="C6" s="53" t="n">
+        <v>0.2566666666666667</v>
+      </c>
+      <c r="D6" s="24" t="n">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="E6" s="38" t="n">
+        <v>0.09666666666666666</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="H6" s="54" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="13" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="J6" s="48" t="n">
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="K6" s="61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="C7" s="20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D7" s="46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="29" t="n">
+        <v>0.2633333333333333</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>0.1733333333333333</v>
+      </c>
+      <c r="H7" s="64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J7" s="38" t="n">
+        <v>0.09666666666666666</v>
+      </c>
+      <c r="K7" s="52" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>0.05333333333333334</v>
+      </c>
+      <c r="C8" s="65" t="n">
+        <v>0.3133333333333334</v>
+      </c>
+      <c r="D8" s="66" t="n">
+        <v>0.1966666666666667</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="58" t="n">
+        <v>0.1366666666666667</v>
+      </c>
+      <c r="H8" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="D10" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="E10" s="64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="68" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="I10" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="47" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="34" t="n">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0.07333333333333333</v>
+      </c>
+      <c r="D11" s="24" t="n">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="E11" s="51" t="n">
+        <v>0.2533333333333334</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I11" s="69" t="n">
+        <v>0.2466666666666667</v>
+      </c>
+      <c r="J11" s="27" t="n">
+        <v>0.1133333333333333</v>
+      </c>
+      <c r="K11" s="70" t="n">
+        <v>0.1566666666666667</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/results/AYTO VIP S2/results.xlsx
+++ b/results/AYTO VIP S2/results.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Episode 08" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Episode 09" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Episode 10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Episode 11" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1323,6 +1324,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amadu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fabio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" s="56" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E2" s="40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22" t="n">
+        <v>0.1733333333333333</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="J2" s="57" t="n">
+        <v>0.3633333333333333</v>
+      </c>
+      <c r="K2" s="58" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="59" t="n">
+        <v>0.6866666666666666</v>
+      </c>
+      <c r="C3" s="56" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="D3" s="40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="56" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="J3" s="47" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="K3" s="46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D4" s="60" t="n">
+        <v>0.2366666666666667</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I4" s="46" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="J4" s="41" t="n">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="K4" s="61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="E5" s="62" t="n">
+        <v>0.1233333333333333</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>0.1133333333333333</v>
+      </c>
+      <c r="H5" s="43" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="I5" s="53" t="n">
+        <v>0.2566666666666667</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K5" s="63" t="n">
+        <v>0.1533333333333333</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="47" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="C6" s="53" t="n">
+        <v>0.2566666666666667</v>
+      </c>
+      <c r="D6" s="24" t="n">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="E6" s="38" t="n">
+        <v>0.09666666666666666</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="H6" s="54" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="13" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="J6" s="48" t="n">
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="K6" s="61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>0.05666666666666666</v>
+      </c>
+      <c r="C7" s="20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D7" s="46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="29" t="n">
+        <v>0.2633333333333333</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>0.1733333333333333</v>
+      </c>
+      <c r="H7" s="64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J7" s="38" t="n">
+        <v>0.09666666666666666</v>
+      </c>
+      <c r="K7" s="52" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>0.05333333333333334</v>
+      </c>
+      <c r="C8" s="65" t="n">
+        <v>0.3133333333333334</v>
+      </c>
+      <c r="D8" s="66" t="n">
+        <v>0.1966666666666667</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="58" t="n">
+        <v>0.1366666666666667</v>
+      </c>
+      <c r="H8" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="D10" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="E10" s="64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="68" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="I10" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="47" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="34" t="n">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0.07333333333333333</v>
+      </c>
+      <c r="D11" s="24" t="n">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="E11" s="51" t="n">
+        <v>0.2533333333333334</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="n">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="I11" s="69" t="n">
+        <v>0.2466666666666667</v>
+      </c>
+      <c r="J11" s="27" t="n">
+        <v>0.1133333333333333</v>
+      </c>
+      <c r="K11" s="70" t="n">
+        <v>0.1566666666666667</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/results/AYTO VIP S2/results.xlsx
+++ b/results/AYTO VIP S2/results.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Episode 09" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Episode 10" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Episode 11" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Episode 12" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,7 +45,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="71">
+  <fills count="84">
     <fill>
       <patternFill/>
     </fill>
@@ -394,6 +395,71 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0028D7FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CD32FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0003FCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003DC2FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0009F6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002BD4FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004CB3FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003AC5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EB14FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00629DFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002FD0FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002DD2FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0021DEFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -415,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -489,6 +555,19 @@
     <xf numFmtId="0" fontId="3" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1800,6 +1879,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amadu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fabio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" s="18" t="n">
+        <v>0.02876106194690265</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>0.06305309734513274</v>
+      </c>
+      <c r="D2" s="38" t="n">
+        <v>0.09734513274336283</v>
+      </c>
+      <c r="E2" s="71" t="n">
+        <v>0.03650442477876106</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="n">
+        <v>0.163716814159292</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>0.06305309734513274</v>
+      </c>
+      <c r="J2" s="72" t="n">
+        <v>0.3838495575221239</v>
+      </c>
+      <c r="K2" s="35" t="n">
+        <v>0.163716814159292</v>
+      </c>
+      <c r="L2" s="13" t="n">
+        <v>0.1084070796460177</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="73" t="n">
+        <v>0.8030973451327433</v>
+      </c>
+      <c r="C3" s="54" t="n">
+        <v>0.02212389380530973</v>
+      </c>
+      <c r="D3" s="74" t="n">
+        <v>0.01548672566371681</v>
+      </c>
+      <c r="E3" s="54" t="n">
+        <v>0.02101769911504425</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="56" t="n">
+        <v>0.03429203539823009</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34" t="n">
+        <v>0.04535398230088496</v>
+      </c>
+      <c r="J3" s="74" t="n">
+        <v>0.01216814159292035</v>
+      </c>
+      <c r="K3" s="34" t="n">
+        <v>0.04646017699115045</v>
+      </c>
+      <c r="L3" s="13" t="n">
+        <v>0.1084070796460177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="74" t="n">
+        <v>0.01216814159292035</v>
+      </c>
+      <c r="C4" s="46" t="n">
+        <v>0.09292035398230089</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0.3252212389380531</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.08296460176991151</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35" t="n">
+        <v>0.1615044247787611</v>
+      </c>
+      <c r="H4" s="75" t="n">
+        <v>0.002212389380530973</v>
+      </c>
+      <c r="I4" s="38" t="n">
+        <v>0.09402654867256637</v>
+      </c>
+      <c r="J4" s="24" t="n">
+        <v>0.1028761061946903</v>
+      </c>
+      <c r="K4" s="33" t="n">
+        <v>0.1261061946902655</v>
+      </c>
+      <c r="L4" s="13" t="n">
+        <v>0.1084070796460177</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>0.06858407079646017</v>
+      </c>
+      <c r="C5" s="62" t="n">
+        <v>0.1216814159292035</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.09955752212389381</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>0.120575221238938</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33" t="n">
+        <v>0.127212389380531</v>
+      </c>
+      <c r="H5" s="64" t="n">
+        <v>0.01106194690265487</v>
+      </c>
+      <c r="I5" s="42" t="n">
+        <v>0.1935840707964602</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>0.07190265486725664</v>
+      </c>
+      <c r="K5" s="76" t="n">
+        <v>0.1858407079646018</v>
+      </c>
+      <c r="L5" s="13" t="n">
+        <v>0.1084070796460177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="74" t="n">
+        <v>0.01438053097345133</v>
+      </c>
+      <c r="C6" s="77" t="n">
+        <v>0.2400442477876106</v>
+      </c>
+      <c r="D6" s="46" t="n">
+        <v>0.09292035398230089</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.1106194690265487</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="41" t="n">
+        <v>0.08738938053097345</v>
+      </c>
+      <c r="H6" s="74" t="n">
+        <v>0.01327433628318584</v>
+      </c>
+      <c r="I6" s="63" t="n">
+        <v>0.1559734513274336</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>0.1084070796460177</v>
+      </c>
+      <c r="K6" s="78" t="n">
+        <v>0.1769911504424779</v>
+      </c>
+      <c r="L6" s="79" t="n">
+        <v>0.1327433628318584</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="34" t="n">
+        <v>0.04314159292035398</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>0.1139380530973451</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.07743362831858407</v>
+      </c>
+      <c r="E7" s="80" t="n">
+        <v>0.168141592920354</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="81" t="n">
+        <v>0.2267699115044248</v>
+      </c>
+      <c r="H7" s="43" t="n">
+        <v>0.01769911504424779</v>
+      </c>
+      <c r="I7" s="46" t="n">
+        <v>0.09292035398230089</v>
+      </c>
+      <c r="J7" s="24" t="n">
+        <v>0.1050884955752212</v>
+      </c>
+      <c r="K7" s="63" t="n">
+        <v>0.1548672566371681</v>
+      </c>
+      <c r="L7" s="13" t="n">
+        <v>0.1084070796460177</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="36" t="n">
+        <v>0.00663716814159292</v>
+      </c>
+      <c r="C8" s="53" t="n">
+        <v>0.254424778761062</v>
+      </c>
+      <c r="D8" s="42" t="n">
+        <v>0.1935840707964602</v>
+      </c>
+      <c r="E8" s="58" t="n">
+        <v>0.1360619469026549</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="49" t="n">
+        <v>0.1880530973451327</v>
+      </c>
+      <c r="H8" s="43" t="n">
+        <v>0.01769911504424779</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.09845132743362832</v>
+      </c>
+      <c r="J8" s="24" t="n">
+        <v>0.1050884955752212</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13" t="n">
+        <v>0.1084070796460177</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="n">
+        <v>0.1084070796460177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="75" t="n">
+        <v>0.002212389380530973</v>
+      </c>
+      <c r="D10" s="64" t="n">
+        <v>0.00995575221238938</v>
+      </c>
+      <c r="E10" s="47" t="n">
+        <v>0.02654867256637168</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="64" t="n">
+        <v>0.01106194690265487</v>
+      </c>
+      <c r="H10" s="82" t="n">
+        <v>0.9203539823008849</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18" t="n">
+        <v>0.02986725663716814</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="54" t="n">
+        <v>0.02323008849557522</v>
+      </c>
+      <c r="C11" s="41" t="n">
+        <v>0.08960176991150443</v>
+      </c>
+      <c r="D11" s="41" t="n">
+        <v>0.08849557522123894</v>
+      </c>
+      <c r="E11" s="83" t="n">
+        <v>0.2975663716814159</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="43" t="n">
+        <v>0.01769911504424779</v>
+      </c>
+      <c r="I11" s="53" t="n">
+        <v>0.2566371681415929</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>0.1106194690265487</v>
+      </c>
+      <c r="K11" s="27" t="n">
+        <v>0.1161504424778761</v>
+      </c>
+      <c r="L11" s="13" t="n">
+        <v>0.1084070796460177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/results/AYTO VIP S2/results.xlsx
+++ b/results/AYTO VIP S2/results.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Episode 10" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Episode 11" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Episode 12" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Episode 13" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45,7 +46,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="84">
+  <fills count="95">
     <fill>
       <patternFill/>
     </fill>
@@ -460,6 +461,61 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0021DEFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D12EFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004EB1FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000AF5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0049B6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0024DBFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0044BBFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002ED1FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EA15FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003BC4FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005CA3FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0038C7FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -481,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -568,6 +624,17 @@
     <xf numFmtId="0" fontId="2" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2355,6 +2422,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amadu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fabio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" s="56" t="n">
+        <v>0.03403141361256545</v>
+      </c>
+      <c r="C2" s="17" t="n">
+        <v>0.06151832460732985</v>
+      </c>
+      <c r="D2" s="24" t="n">
+        <v>0.1020942408376963</v>
+      </c>
+      <c r="E2" s="84" t="n">
+        <v>0.0418848167539267</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="85" t="n">
+        <v>0.143979057591623</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>0.06282722513089005</v>
+      </c>
+      <c r="J2" s="86" t="n">
+        <v>0.3599476439790576</v>
+      </c>
+      <c r="K2" s="42" t="n">
+        <v>0.193717277486911</v>
+      </c>
+      <c r="L2" s="13" t="n">
+        <v>0.1086387434554974</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="87" t="n">
+        <v>0.8167539267015707</v>
+      </c>
+      <c r="C3" s="74" t="n">
+        <v>0.0143979057591623</v>
+      </c>
+      <c r="D3" s="43" t="n">
+        <v>0.01701570680628272</v>
+      </c>
+      <c r="E3" s="74" t="n">
+        <v>0.01178010471204189</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18" t="n">
+        <v>0.0274869109947644</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34" t="n">
+        <v>0.04319371727748691</v>
+      </c>
+      <c r="J3" s="74" t="n">
+        <v>0.0143979057591623</v>
+      </c>
+      <c r="K3" s="15" t="n">
+        <v>0.0549738219895288</v>
+      </c>
+      <c r="L3" s="13" t="n">
+        <v>0.1086387434554974</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="74" t="n">
+        <v>0.01308900523560209</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0.08507853403141362</v>
+      </c>
+      <c r="D4" s="88" t="n">
+        <v>0.306282722513089</v>
+      </c>
+      <c r="E4" s="41" t="n">
+        <v>0.08638743455497382</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22" t="n">
+        <v>0.1727748691099476</v>
+      </c>
+      <c r="H4" s="75" t="n">
+        <v>0.002617801047120419</v>
+      </c>
+      <c r="I4" s="41" t="n">
+        <v>0.08900523560209424</v>
+      </c>
+      <c r="J4" s="38" t="n">
+        <v>0.09554973821989529</v>
+      </c>
+      <c r="K4" s="61" t="n">
+        <v>0.1492146596858639</v>
+      </c>
+      <c r="L4" s="13" t="n">
+        <v>0.1086387434554974</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="40" t="n">
+        <v>0.04842931937172775</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.112565445026178</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>0.1047120418848168</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.112565445026178</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>0.1138743455497382</v>
+      </c>
+      <c r="H5" s="74" t="n">
+        <v>0.01308900523560209</v>
+      </c>
+      <c r="I5" s="45" t="n">
+        <v>0.2107329842931937</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <v>0.06413612565445026</v>
+      </c>
+      <c r="K5" s="89" t="n">
+        <v>0.2198952879581152</v>
+      </c>
+      <c r="L5" s="13" t="n">
+        <v>0.1086387434554974</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="36" t="n">
+        <v>0.005235602094240838</v>
+      </c>
+      <c r="C6" s="60" t="n">
+        <v>0.2356020942408377</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.08507853403141362</v>
+      </c>
+      <c r="E6" s="38" t="n">
+        <v>0.09554973821989529</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46" t="n">
+        <v>0.09031413612565445</v>
+      </c>
+      <c r="H6" s="74" t="n">
+        <v>0.0143979057591623</v>
+      </c>
+      <c r="I6" s="61" t="n">
+        <v>0.1505235602094241</v>
+      </c>
+      <c r="J6" s="27" t="n">
+        <v>0.1138743455497382</v>
+      </c>
+      <c r="K6" s="45" t="n">
+        <v>0.2094240837696335</v>
+      </c>
+      <c r="L6" s="79" t="n">
+        <v>0.1308900523560209</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="16" t="n">
+        <v>0.05104712041884817</v>
+      </c>
+      <c r="C7" s="58" t="n">
+        <v>0.1348167539267016</v>
+      </c>
+      <c r="D7" s="46" t="n">
+        <v>0.09162303664921466</v>
+      </c>
+      <c r="E7" s="66" t="n">
+        <v>0.1989528795811518</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="90" t="n">
+        <v>0.2683246073298429</v>
+      </c>
+      <c r="H7" s="54" t="n">
+        <v>0.02094240837696335</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.1099476439790576</v>
+      </c>
+      <c r="J7" s="62" t="n">
+        <v>0.1243455497382199</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13" t="n">
+        <v>0.1086387434554974</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="36" t="n">
+        <v>0.006544502617801047</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <v>0.2709424083769634</v>
+      </c>
+      <c r="D8" s="42" t="n">
+        <v>0.1924083769633508</v>
+      </c>
+      <c r="E8" s="58" t="n">
+        <v>0.1348167539267016</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="91" t="n">
+        <v>0.1806282722513089</v>
+      </c>
+      <c r="H8" s="64" t="n">
+        <v>0.01047120418848168</v>
+      </c>
+      <c r="I8" s="24" t="n">
+        <v>0.1020942408376963</v>
+      </c>
+      <c r="J8" s="24" t="n">
+        <v>0.1020942408376963</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13" t="n">
+        <v>0.1086387434554974</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="n">
+        <v>0.1086387434554974</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="75" t="n">
+        <v>0.002617801047120419</v>
+      </c>
+      <c r="D10" s="64" t="n">
+        <v>0.01047120418848168</v>
+      </c>
+      <c r="E10" s="56" t="n">
+        <v>0.03141361256544502</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="75" t="n">
+        <v>0.002617801047120419</v>
+      </c>
+      <c r="H10" s="92" t="n">
+        <v>0.9175392670157068</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="71" t="n">
+        <v>0.03534031413612566</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="47" t="n">
+        <v>0.02486910994764398</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>0.0824607329842932</v>
+      </c>
+      <c r="D11" s="46" t="n">
+        <v>0.09031413612565445</v>
+      </c>
+      <c r="E11" s="93" t="n">
+        <v>0.2866492146596858</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="54" t="n">
+        <v>0.02094240837696335</v>
+      </c>
+      <c r="I11" s="94" t="n">
+        <v>0.2316753926701571</v>
+      </c>
+      <c r="J11" s="33" t="n">
+        <v>0.1256544502617801</v>
+      </c>
+      <c r="K11" s="52" t="n">
+        <v>0.137434554973822</v>
+      </c>
+      <c r="L11" s="13" t="n">
+        <v>0.1086387434554974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/results/AYTO VIP S2/results.xlsx
+++ b/results/AYTO VIP S2/results.xlsx
@@ -19,6 +19,7 @@
     <sheet name="Episode 11" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Episode 12" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Episode 13" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Episode 14" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46,7 +47,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="95">
+  <fills count="103">
     <fill>
       <patternFill/>
     </fill>
@@ -516,6 +517,46 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0038C7FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BD42FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008877FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0034CBFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0042BDFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F00FFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007689FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002AD5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0033CCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -537,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -635,6 +676,14 @@
     <xf numFmtId="0" fontId="3" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2898,6 +2947,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amadu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fabio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" s="84" t="n">
+        <v>0.04102564102564103</v>
+      </c>
+      <c r="C2" s="16" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D2" s="76" t="n">
+        <v>0.1846153846153846</v>
+      </c>
+      <c r="E2" s="34" t="n">
+        <v>0.04615384615384616</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.1128205128205128</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="n">
+        <v>0.05641025641025641</v>
+      </c>
+      <c r="J2" s="95" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="K2" s="34" t="n">
+        <v>0.04615384615384616</v>
+      </c>
+      <c r="L2" s="24" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="96" t="n">
+        <v>0.7384615384615385</v>
+      </c>
+      <c r="C3" s="36" t="n">
+        <v>0.005128205128205128</v>
+      </c>
+      <c r="D3" s="64" t="n">
+        <v>0.01025641025641026</v>
+      </c>
+      <c r="E3" s="84" t="n">
+        <v>0.04102564102564103</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0.08205128205128205</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="62" t="n">
+        <v>0.1230769230769231</v>
+      </c>
+      <c r="L3" s="24" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="36" t="n">
+        <v>0.005128205128205128</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0.1179487179487179</v>
+      </c>
+      <c r="D4" s="97" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E4" s="74" t="n">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.08205128205128205</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>0.005128205128205128</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.08205128205128205</v>
+      </c>
+      <c r="J4" s="74" t="n">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="K4" s="85" t="n">
+        <v>0.1435897435897436</v>
+      </c>
+      <c r="L4" s="24" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="33" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="C5" s="46" t="n">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D5" s="17" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="49" t="n">
+        <v>0.1897435897435897</v>
+      </c>
+      <c r="H5" s="64" t="n">
+        <v>0.01025641025641026</v>
+      </c>
+      <c r="I5" s="33" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="37" t="n">
+        <v>0.3230769230769231</v>
+      </c>
+      <c r="L5" s="24" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="57" t="n">
+        <v>0.3641025641025641</v>
+      </c>
+      <c r="D6" s="54" t="n">
+        <v>0.02051282051282051</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="80" t="n">
+        <v>0.1692307692307692</v>
+      </c>
+      <c r="H6" s="36" t="n">
+        <v>0.005128205128205128</v>
+      </c>
+      <c r="I6" s="34" t="n">
+        <v>0.04615384615384616</v>
+      </c>
+      <c r="J6" s="80" t="n">
+        <v>0.1692307692307692</v>
+      </c>
+      <c r="K6" s="98" t="n">
+        <v>0.1641025641025641</v>
+      </c>
+      <c r="L6" s="78" t="n">
+        <v>0.1794871794871795</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="84" t="n">
+        <v>0.04102564102564103</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D7" s="54" t="n">
+        <v>0.02051282051282051</v>
+      </c>
+      <c r="E7" s="99" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="100" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="H7" s="84" t="n">
+        <v>0.04102564102564103</v>
+      </c>
+      <c r="I7" s="80" t="n">
+        <v>0.1692307692307692</v>
+      </c>
+      <c r="J7" s="63" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="61" t="n">
+        <v>0.1487179487179487</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E8" s="31" t="n">
+        <v>0.2769230769230769</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>0.1743589743589744</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25" t="n">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="J8" s="16" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="24" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="24" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="64" t="n">
+        <v>0.01025641025641026</v>
+      </c>
+      <c r="D10" s="84" t="n">
+        <v>0.04102564102564103</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="64" t="n">
+        <v>0.01025641025641026</v>
+      </c>
+      <c r="H10" s="101" t="n">
+        <v>0.9384615384615385</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="34" t="n">
+        <v>0.04615384615384616</v>
+      </c>
+      <c r="C11" s="24" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+      <c r="D11" s="17" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="E11" s="93" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="63" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="J11" s="61" t="n">
+        <v>0.1487179487179487</v>
+      </c>
+      <c r="K11" s="102" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="24" t="n">
+        <v>0.1025641025641026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/results/AYTO VIP S2/results.xlsx
+++ b/results/AYTO VIP S2/results.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Episode 12" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Episode 13" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Episode 14" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Episode 15" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,7 +48,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="103">
+  <fills count="109">
     <fill>
       <patternFill/>
     </fill>
@@ -557,6 +558,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0033CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00639CFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00609FFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005AA5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00718EFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0051AEFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0037C8FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -578,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -684,6 +715,12 @@
     <xf numFmtId="0" fontId="2" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3423,6 +3460,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amadu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fabio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="D2" s="51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="84" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="J2" s="103" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="K2" s="15" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L2" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="70" t="n">
+        <v>0.1597222222222222</v>
+      </c>
+      <c r="D4" s="104" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E4" s="54" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J4" s="54" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="K4" s="49" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="L4" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="33" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E5" s="46" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="53" t="n">
+        <v>0.2569444444444444</v>
+      </c>
+      <c r="H5" s="74" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="105" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L5" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="48" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="81" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+      <c r="H6" s="36" t="n">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J6" s="89" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="K6" s="89" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L6" s="89" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="48" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="E7" s="46" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="106" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="I7" s="22" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="J7" s="63" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="102" t="n">
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E8" s="107" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="J8" s="74" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="74" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="74" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="H10" s="92" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="52" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E11" s="26" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="52" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="J11" s="48" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="K11" s="108" t="n">
+        <v>0.2152777777777778</v>
+      </c>
+      <c r="L11" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/results/AYTO VIP S2/results.xlsx
+++ b/results/AYTO VIP S2/results.xlsx
@@ -21,6 +21,7 @@
     <sheet name="Episode 13" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Episode 14" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Episode 15" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Episode 16" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3936,6 +3937,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amadu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fabio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="D2" s="51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="84" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="J2" s="103" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="K2" s="15" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L2" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="70" t="n">
+        <v>0.1597222222222222</v>
+      </c>
+      <c r="D4" s="104" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E4" s="54" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J4" s="54" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="K4" s="49" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="L4" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="33" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E5" s="46" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="53" t="n">
+        <v>0.2569444444444444</v>
+      </c>
+      <c r="H5" s="74" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="105" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L5" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="48" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="81" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+      <c r="H6" s="36" t="n">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J6" s="89" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="K6" s="89" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L6" s="89" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="48" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="E7" s="46" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="106" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="I7" s="22" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="J7" s="63" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="102" t="n">
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E8" s="107" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="J8" s="74" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="74" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="74" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="H10" s="92" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="52" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E11" s="26" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="52" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="J11" s="48" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="K11" s="108" t="n">
+        <v>0.2152777777777778</v>
+      </c>
+      <c r="L11" s="38" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/results/AYTO VIP S2/results.xlsx
+++ b/results/AYTO VIP S2/results.xlsx
@@ -22,6 +22,7 @@
     <sheet name="Episode 14" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Episode 15" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Episode 16" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Episode 17" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -49,7 +50,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="109">
+  <fills count="114">
     <fill>
       <patternFill/>
     </fill>
@@ -589,6 +590,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0037C8FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A05FFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00946BFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00748BFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D02FFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006897FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -610,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -722,6 +748,11 @@
     <xf numFmtId="0" fontId="3" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -4413,6 +4444,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amadu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fabio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="38" t="n">
+        <v>0.09375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="38" t="n">
+        <v>0.09375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="38" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="D4" s="109" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="70" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="H4" s="43" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="L4" s="38" t="n">
+        <v>0.09375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="70" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="D5" s="40" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="E5" s="33" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="110" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="H5" s="56" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="49" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="L5" s="38" t="n">
+        <v>0.09375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="56" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="E6" s="33" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="86" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="H6" s="43" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="I6" s="33" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="83" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="L6" s="51" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>0.171875</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="33" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I7" s="107" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="38" t="n">
+        <v>0.09375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="33" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="E8" s="111" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="60" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38" t="n">
+        <v>0.09375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="38" t="n">
+        <v>0.09375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="56" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="D10" s="33" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="56" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="H10" s="112" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="25" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="D11" s="40" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="90" t="n">
+        <v>0.265625</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="113" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="L11" s="38" t="n">
+        <v>0.09375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/results/AYTO VIP S2/results.xlsx
+++ b/results/AYTO VIP S2/results.xlsx
@@ -23,6 +23,7 @@
     <sheet name="Episode 15" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Episode 16" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Episode 17" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Episode 18" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4920,6 +4921,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amadu</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fabio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Pharrell</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
+      <c r="B3" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Franziska</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Gina</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Karina</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Luisa</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Ricarda</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
